--- a/public/amap_shenzhen_food.xlsx
+++ b/public/amap_shenzhen_food.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\CityWalkbackend\python\data_use\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149A2D6E-C763-4A49-8883-442114D7138C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="748">
   <si>
     <t>景点</t>
   </si>
@@ -333,9 +339,6 @@
   </si>
   <si>
     <t>22.535756</t>
-  </si>
-  <si>
-    <t>西塔老太太泥炉烤肉(领展中心城店)</t>
   </si>
   <si>
     <t>嘉苑饭店</t>
@@ -2279,14 +2282,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2301,345 +2298,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2662,251 +2335,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2914,61 +2345,28 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3253,24 +2651,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C251"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="38.925" customWidth="1"/>
+    <col min="1" max="1" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3281,7 +2679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3292,7 +2690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3303,7 +2701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3314,7 +2712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3325,7 +2723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3336,7 +2734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3347,7 +2745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3358,7 +2756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3369,7 +2767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3380,7 +2778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3391,7 +2789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3402,7 +2800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -3413,7 +2811,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -3424,7 +2822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -3435,7 +2833,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -3446,7 +2844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -3457,7 +2855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3468,7 +2866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -3479,7 +2877,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -3490,7 +2888,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -3501,7 +2899,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -3512,7 +2910,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -3523,7 +2921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -3534,7 +2932,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -3545,7 +2943,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -3556,7 +2954,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -3567,7 +2965,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -3578,7 +2976,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -3589,7 +2987,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -3600,7 +2998,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>90</v>
       </c>
@@ -3611,7 +3009,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -3622,7 +3020,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>96</v>
       </c>
@@ -3633,7 +3031,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -3644,2395 +3042,2387 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C65" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B67" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B74" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B77" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B79" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C80" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C81" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C82" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C83" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B84" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C84" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C85" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C86" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B87" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C89" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B90" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C90" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C91" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B92" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C92" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B93" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C93" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B96" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C96" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B97" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C97" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B98" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C98" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C99" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B100" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C100" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B101" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C101" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B102" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C102" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B103" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C103" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B104" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C104" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B105" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C105" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B106" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C106" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B107" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C107" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B108" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C108" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B109" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C109" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B110" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C110" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B111" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C111" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B112" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C112" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B113" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C113" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B114" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C114" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B115" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C115" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B116" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C116" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B117" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C117" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B118" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C118" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B119" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C119" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B120" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C120" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B121" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C121" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B122" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C122" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B123" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C123" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B124" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C124" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B125" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C125" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B126" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C126" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B127" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C127" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B128" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C128" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B129" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C129" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B130" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C130" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B131" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C131" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B132" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C132" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B133" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C133" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B134" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C134" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B135" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C135" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B136" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C136" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B137" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C137" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B138" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C138" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B139" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C139" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B140" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C140" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B141" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C141" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B142" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C142" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B143" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C143" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B144" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C144" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B145" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C145" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B146" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C146" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B147" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C147" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B148" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C148" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B149" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C149" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B150" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C150" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B151" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C151" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B152" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C152" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B153" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C153" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B154" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C154" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B155" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C155" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B156" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C156" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B157" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C157" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B158" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C158" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B159" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C159" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B160" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C160" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B161" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C161" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B162" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C162" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B163" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C163" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B164" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C164" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B165" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C165" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B166" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C166" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B167" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C167" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B168" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C168" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B169" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C169" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B170" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C170" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B171" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C171" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B172" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C172" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B173" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C173" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B174" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C174" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B175" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C175" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B176" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C176" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B177" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C177" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B178" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C178" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B179" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C179" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B180" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C180" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B181" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C181" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B182" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C182" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B183" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C183" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B184" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C184" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B185" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C185" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B186" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C186" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B187" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C187" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B188" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C188" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B189" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C189" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B190" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C190" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B191" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C191" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B192" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C192" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B193" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C193" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B194" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C194" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B195" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C195" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B196" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C196" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B197" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C197" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B198" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C198" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
+        <v>593</v>
+      </c>
+      <c r="B199" t="s">
+        <v>594</v>
+      </c>
+      <c r="C199" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>596</v>
+      </c>
+      <c r="B200" t="s">
+        <v>597</v>
+      </c>
+      <c r="C200" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>599</v>
+      </c>
+      <c r="B201" t="s">
+        <v>600</v>
+      </c>
+      <c r="C201" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>602</v>
+      </c>
+      <c r="B202" t="s">
+        <v>603</v>
+      </c>
+      <c r="C202" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>605</v>
+      </c>
+      <c r="B203" t="s">
+        <v>606</v>
+      </c>
+      <c r="C203" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>608</v>
+      </c>
+      <c r="B204" t="s">
+        <v>609</v>
+      </c>
+      <c r="C204" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>611</v>
+      </c>
+      <c r="B205" t="s">
+        <v>612</v>
+      </c>
+      <c r="C205" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>614</v>
+      </c>
+      <c r="B206" t="s">
+        <v>615</v>
+      </c>
+      <c r="C206" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>617</v>
+      </c>
+      <c r="B207" t="s">
+        <v>618</v>
+      </c>
+      <c r="C207" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>620</v>
+      </c>
+      <c r="B208" t="s">
+        <v>621</v>
+      </c>
+      <c r="C208" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>623</v>
+      </c>
+      <c r="B209" t="s">
+        <v>624</v>
+      </c>
+      <c r="C209" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>626</v>
+      </c>
+      <c r="B210" t="s">
+        <v>627</v>
+      </c>
+      <c r="C210" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>629</v>
+      </c>
+      <c r="B211" t="s">
+        <v>630</v>
+      </c>
+      <c r="C211" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>632</v>
+      </c>
+      <c r="B212" t="s">
+        <v>633</v>
+      </c>
+      <c r="C212" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>635</v>
+      </c>
+      <c r="B213" t="s">
+        <v>636</v>
+      </c>
+      <c r="C213" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>638</v>
+      </c>
+      <c r="B214" t="s">
         <v>591</v>
       </c>
-      <c r="B199" t="s">
-        <v>592</v>
-      </c>
-      <c r="C199" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
-        <v>594</v>
-      </c>
-      <c r="B200" t="s">
-        <v>595</v>
-      </c>
-      <c r="C200" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
-        <v>597</v>
-      </c>
-      <c r="B201" t="s">
-        <v>598</v>
-      </c>
-      <c r="C201" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>600</v>
-      </c>
-      <c r="B202" t="s">
-        <v>601</v>
-      </c>
-      <c r="C202" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
-        <v>603</v>
-      </c>
-      <c r="B203" t="s">
-        <v>604</v>
-      </c>
-      <c r="C203" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
-        <v>606</v>
-      </c>
-      <c r="B204" t="s">
-        <v>607</v>
-      </c>
-      <c r="C204" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
-        <v>609</v>
-      </c>
-      <c r="B205" t="s">
-        <v>610</v>
-      </c>
-      <c r="C205" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
-        <v>612</v>
-      </c>
-      <c r="B206" t="s">
-        <v>613</v>
-      </c>
-      <c r="C206" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
-        <v>615</v>
-      </c>
-      <c r="B207" t="s">
-        <v>616</v>
-      </c>
-      <c r="C207" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" t="s">
-        <v>618</v>
-      </c>
-      <c r="B208" t="s">
-        <v>619</v>
-      </c>
-      <c r="C208" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
-        <v>621</v>
-      </c>
-      <c r="B209" t="s">
-        <v>622</v>
-      </c>
-      <c r="C209" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" t="s">
-        <v>624</v>
-      </c>
-      <c r="B210" t="s">
-        <v>625</v>
-      </c>
-      <c r="C210" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" t="s">
-        <v>627</v>
-      </c>
-      <c r="B211" t="s">
-        <v>628</v>
-      </c>
-      <c r="C211" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
-        <v>630</v>
-      </c>
-      <c r="B212" t="s">
-        <v>631</v>
-      </c>
-      <c r="C212" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" t="s">
-        <v>633</v>
-      </c>
-      <c r="B213" t="s">
-        <v>634</v>
-      </c>
-      <c r="C213" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" t="s">
-        <v>636</v>
-      </c>
-      <c r="B214" t="s">
-        <v>637</v>
-      </c>
       <c r="C214" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B215" t="s">
-        <v>592</v>
+        <v>641</v>
       </c>
       <c r="C215" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B216" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C216" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B217" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C217" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B218" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C218" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B219" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C219" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B220" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C220" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B221" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C221" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B222" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C222" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B223" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C223" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B224" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C224" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B225" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C225" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B226" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C226" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B227" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C227" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B228" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C228" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B229" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C229" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B230" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C230" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B231" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C231" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B232" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C232" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B233" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C233" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B234" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C234" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B235" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C235" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B236" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C236" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B237" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C237" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B238" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C238" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B239" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C239" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B240" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C240" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B241" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C241" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B242" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C242" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B243" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C243" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B244" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C244" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B245" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C245" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B246" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C246" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B247" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C247" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B248" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C248" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B249" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C249" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B250" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C250" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" t="s">
-        <v>746</v>
-      </c>
-      <c r="B251" t="s">
         <v>747</v>
       </c>
-      <c r="C251" t="s">
-        <v>748</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>